--- a/Excel/GameText.xlsx
+++ b/Excel/GameText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E0EB5B-468C-4DA2-8C2C-32BF9ABC8446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B940988-D60E-4D69-989D-1F21529BC445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,28 @@
   </si>
   <si>
     <t>그럴지도 몰라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharater_Test1</t>
+  </si>
+  <si>
+    <t>테스트 팬치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharacterTest_Skill</t>
+  </si>
+  <si>
+    <t>DEM 캐릭터 Test1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM 캐릭터 Test1 스킬 1번 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마구긁기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +568,24 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -894,16 +933,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="74.625" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
@@ -1587,21 +1626,129 @@
       </c>
       <c r="D64" s="5"/>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A11:A27 A34:A64">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  <conditionalFormatting sqref="A11:A27 A34:A80">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A1048576 A1:A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="A81:A1048576 A1:A10">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/GameText.xlsx
+++ b/Excel/GameText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_Project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B940988-D60E-4D69-989D-1F21529BC445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8192554-8B27-44F3-836C-D233B5F5F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,42 @@
   </si>
   <si>
     <t>마구긁기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itme_StarSugarName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itme_StarSugarDecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itme_StarSugarExtraText1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕 아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕 아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕 아이템 엑스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사상지평의 기운을 머금고 있는 작은 별사탕이다.\n그러나 먹기에는 너무 아름다운 형태를 띄고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Color=yellow&gt;"책 근처로 가져가면 빛이 나는 듯 한데…이걸 가지고 뭔가 이용할 수 있을까..?"&lt;/Color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,24 +604,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -935,15 +954,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="97.125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.625" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1675,21 +1694,39 @@
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
+      <c r="A71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
+      <c r="A72" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
+      <c r="A73" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,18 +1774,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A11:A27 A34:A80">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A33">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:A1048576 A1:A10">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/GameText.xlsx
+++ b/Excel/GameText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8192554-8B27-44F3-836C-D233B5F5F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D77542D-2A87-4C6C-B51C-6CD89EF5F40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="38295" yWindow="3015" windowWidth="14610" windowHeight="15585" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트 스킬 1번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Wakgood_TestSkill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,22 +162,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아군 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JapMop_1Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>잡몹1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestChapterName1</t>
   </si>
   <si>
@@ -193,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왁굳형테스트 캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JapMop_1TestSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,16 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 잡몹 스킬 테스트1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 잡몹 스킬 테스트3</t>
-  </si>
-  <si>
-    <t>적 잡몹 스킬 테스트4</t>
-  </si>
-  <si>
     <t>Wakgood_TestSkill1_Option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 스킬 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적 스킬 기본 옵션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 잡몹 스킬 테스트2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 +{2}</t>
   </si>
   <si>
@@ -441,58 +403,35 @@
     <t>DEMCharater_Test1</t>
   </si>
   <si>
-    <t>테스트 팬치</t>
+    <t>Itme_StarSugarName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itme_StarSugarDecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Itme_StarSugarExtraText1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕 아이템 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별사탕 아이템 엑스트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사상지평의 기운을 머금고 있는 작은 별사탕이다.\n그러나 먹기에는 너무 아름다운 형태를 띄고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Color=yellow&gt;"책 근처로 가져가면 빛이 나는 듯 한데…이걸 가지고 뭔가 이용할 수 있을까..?"&lt;/Color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DEMCharacterTest_Skill</t>
-  </si>
-  <si>
-    <t>DEM 캐릭터 Test1 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEM 캐릭터 Test1 스킬 1번 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마구긁기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itme_StarSugarName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itme_StarSugarDecs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Itme_StarSugarExtraText1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별사탕 아이템 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별사탕 아이템 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별사탕 아이템 엑스트라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별사탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사상지평의 기운을 머금고 있는 작은 별사탕이다.\n그러나 먹기에는 너무 아름다운 형태를 띄고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;Color=yellow&gt;"책 근처로 가져가면 빛이 나는 듯 한데…이걸 가지고 뭔가 이용할 수 있을까..?"&lt;/Color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1037,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>5</v>
@@ -1110,7 +1049,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -1122,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
@@ -1134,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -1146,7 +1085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
@@ -1179,13 +1118,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -1233,73 +1172,65 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D33" s="5"/>
     </row>
@@ -1335,313 +1266,293 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>46</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D64" s="5"/>
     </row>
@@ -1659,26 +1570,18 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>110</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1695,37 +1598,33 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D73" s="5"/>
     </row>
